--- a/диаграммы.xlsx
+++ b/диаграммы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerzy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerzy\Documents\GitHub\zhizn_voram_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9289B91B-D792-4171-98E5-F6978E3A40DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75FA39C-6984-4CA0-9660-A3B42D1BFDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="2190" windowWidth="33585" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="дома" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="222">
   <si>
     <t>№(i)</t>
   </si>
@@ -1342,31 +1342,10 @@
     <t>аенрпвне!I$2:I$92;"&gt;="&amp;</t>
   </si>
   <si>
-    <t>больше 12</t>
-  </si>
-  <si>
     <t>фактическое распределение</t>
   </si>
   <si>
     <t>нормальное распределение</t>
-  </si>
-  <si>
-    <t>от 0 до 2</t>
-  </si>
-  <si>
-    <t>от 2 до 3,5</t>
-  </si>
-  <si>
-    <t>от 3,5 до 6</t>
-  </si>
-  <si>
-    <t>от 6 до 8</t>
-  </si>
-  <si>
-    <t>от 8 до 9,25</t>
-  </si>
-  <si>
-    <t>от 9,25 до 12</t>
   </si>
   <si>
     <t>г</t>
@@ -1436,6 +1415,9 @@
   </si>
   <si>
     <t>per_level</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -2677,7 +2659,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="78" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2973,45 +2955,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -3060,6 +3003,44 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="78" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3085,7 +3066,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="3" xr:uid="{E85D9717-BB92-465F-A073-234866610968}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="0"/>
@@ -3095,16 +3076,6 @@
       <font>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3177,23 +3148,8 @@
                 </a:solidFill>
                 <a:latin typeface="Montserrat SemiBold" pitchFamily="2" charset="-52"/>
               </a:rPr>
-              <a:t>Распределение значений плотности</a:t>
+              <a:t>Распределение значений долей амортизации</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Montserrat SemiBold" pitchFamily="2" charset="-52"/>
-              </a:rPr>
-              <a:t> сети общественного транспорта</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Montserrat SemiBold" pitchFamily="2" charset="-52"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3264,7 +3220,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
@@ -3287,7 +3243,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
@@ -3310,7 +3266,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
@@ -3333,7 +3289,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
@@ -3356,7 +3312,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
@@ -3379,7 +3335,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
@@ -3402,7 +3358,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
@@ -3425,7 +3381,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
@@ -3439,6 +3395,75 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000F-F292-4762-986C-EC3C5A124650}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-1D28-48BB-94BF-284274E7B78A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-1D28-48BB-94BF-284274E7B78A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-1D28-48BB-94BF-284274E7B78A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3517,65 +3542,113 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>статистика_по_Pi!$L$15:$L$23</c:f>
+              <c:f>статистика_по_Pi!$L$15:$L$35</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>от 0 до 2</c:v>
+                  <c:v>от 0 до 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>от 2 до 3,5</c:v>
+                  <c:v>от 10 до 20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>от 3,5 до 6</c:v>
+                  <c:v>от 20 до 30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>от 6 до 8</c:v>
+                  <c:v>от 30 до 40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>от 8 до 9,25</c:v>
+                  <c:v>от 40 до 50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>от 9,25 до 12</c:v>
+                  <c:v>от 50 до 60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>больше 12</c:v>
+                  <c:v>от 60 до 70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>от 70 до 80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>от 80 до 90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>от 90 до 100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>от 100 до 110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>от 110 до 120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>от 120 до 130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>от 130 до 140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>от 140 до 150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>от 150 до 160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>от 160 до 170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>от 170 до 180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>от 180 до 190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>от 190 до 200</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>статистика_по_Pi!$C$15:$C$22</c:f>
+              <c:f>статистика_по_Pi!$C$15:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3638,63 +3711,63 @@
                     <c:v>0,00</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1,86</c:v>
+                    <c:v>10,00</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3,71</c:v>
+                    <c:v>20,00</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5,57</c:v>
+                    <c:v>30,00</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7,43</c:v>
+                    <c:v>40,00</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9,29</c:v>
+                    <c:v>50,00</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>11,14</c:v>
+                    <c:v>60,00</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>13,00</c:v>
+                    <c:v>70,00</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>14,86</c:v>
+                    <c:v>80,00</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>16,71</c:v>
+                    <c:v>90,00</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>-1,857142857</c:v>
+                    <c:v>-10</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1,86</c:v>
+                    <c:v>10,00</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3,714285714</c:v>
+                    <c:v>20</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5,571428571</c:v>
+                    <c:v>30</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7,428571429</c:v>
+                    <c:v>40</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9,285714286</c:v>
+                    <c:v>50</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>11,14285714</c:v>
+                    <c:v>60</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>13</c:v>
+                    <c:v>70,00</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>14,85714286</c:v>
+                    <c:v>80,00</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3702,33 +3775,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>статистика_по_Pi!$E$15:$E$22</c:f>
+              <c:f>статистика_по_Pi!$E$15:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>8.9749410763833648</c:v>
+                  <c:v>2.1520763832016536</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.822731066280557</c:v>
+                  <c:v>3.2617167076980706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.420330101229219</c:v>
+                  <c:v>4.6153746787058569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.127116286133898</c:v>
+                  <c:v>6.0973379342568741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.064605653857996</c:v>
+                  <c:v>7.5204958488580829</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0363883430355969</c:v>
+                  <c:v>8.6601585402839021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0296798203411726</c:v>
+                  <c:v>9.3106185424570285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.712492379072259</c:v>
+                  <c:v>9.3455450610592692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7579841115288417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6626150439365617</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2592607191014622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3737,76 +3819,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-F292-4762-986C-EC3C5A124650}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>cредневзвешенная по населению обеспеченность</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="15875" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>\О\с\н\о\в\н\о\й</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-F292-4762-986C-EC3C5A124650}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>нормативная обеспеченность (54 места/1000 чел.)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="15875" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00FF00"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>\О\с\н\о\в\н\о\й</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-F292-4762-986C-EC3C5A124650}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3880,6 +3892,80 @@
                 </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>cредневзвешенная по населению обеспеченность</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="15875" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:prstDash val="dash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numLit>
+                    <c:formatCode>\О\с\н\о\в\н\о\й</c:formatCode>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000012-F292-4762-986C-EC3C5A124650}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>нормативная обеспеченность (54 места/1000 чел.)</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="15875" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="00FF00"/>
+                    </a:solidFill>
+                    <a:prstDash val="dash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numLit>
+                    <c:formatCode>\О\с\н\о\в\н\о\й</c:formatCode>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000013-F292-4762-986C-EC3C5A124650}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
       </c:lineChart>
@@ -3911,7 +3997,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>значение плотности</a:t>
+                  <a:t>значение ДОЛИ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>АМОРТИЗАЦИИ</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" baseline="0"/>
@@ -5612,7 +5706,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B93664B6-898A-4BB0-8D43-71B70D24966B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5623,7 +5717,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9300882" cy="6075189"/>
+    <xdr:ext cx="9290137" cy="6067295"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
@@ -6029,106 +6123,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="167" t="s">
+      <c r="A1" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="163" t="s">
+      <c r="D1" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="169" t="s">
+      <c r="E1" s="152" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="161" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="T1" s="144" t="s">
+      <c r="T1" s="159" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="146"/>
-      <c r="AH1" s="147" t="s">
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="161"/>
+      <c r="AH1" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="AI1" s="149" t="s">
+      <c r="AI1" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
-      <c r="AR1" s="145"/>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="145"/>
-      <c r="AU1" s="145"/>
-      <c r="AV1" s="146"/>
-      <c r="AW1" s="149" t="s">
+      <c r="AJ1" s="160"/>
+      <c r="AK1" s="160"/>
+      <c r="AL1" s="160"/>
+      <c r="AM1" s="160"/>
+      <c r="AN1" s="160"/>
+      <c r="AO1" s="160"/>
+      <c r="AP1" s="160"/>
+      <c r="AQ1" s="160"/>
+      <c r="AR1" s="160"/>
+      <c r="AS1" s="160"/>
+      <c r="AT1" s="160"/>
+      <c r="AU1" s="160"/>
+      <c r="AV1" s="161"/>
+      <c r="AW1" s="164" t="s">
         <v>144</v>
       </c>
-      <c r="AX1" s="150"/>
-      <c r="AY1" s="150"/>
-      <c r="AZ1" s="150"/>
-      <c r="BA1" s="150"/>
-      <c r="BB1" s="150"/>
-      <c r="BC1" s="150"/>
-      <c r="BD1" s="150"/>
-      <c r="BE1" s="150"/>
-      <c r="BF1" s="150"/>
-      <c r="BG1" s="150"/>
-      <c r="BH1" s="150"/>
-      <c r="BI1" s="150"/>
-      <c r="BJ1" s="151"/>
-      <c r="BK1" s="159" t="s">
+      <c r="AX1" s="165"/>
+      <c r="AY1" s="165"/>
+      <c r="AZ1" s="165"/>
+      <c r="BA1" s="165"/>
+      <c r="BB1" s="165"/>
+      <c r="BC1" s="165"/>
+      <c r="BD1" s="165"/>
+      <c r="BE1" s="165"/>
+      <c r="BF1" s="165"/>
+      <c r="BG1" s="165"/>
+      <c r="BH1" s="165"/>
+      <c r="BI1" s="165"/>
+      <c r="BJ1" s="166"/>
+      <c r="BK1" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="BL1" s="152" t="s">
+      <c r="BL1" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="BM1" s="152" t="s">
+      <c r="BM1" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="BN1" s="138" t="s">
+      <c r="BN1" s="153" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:66" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="158"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="164"/>
+      <c r="A2" s="141"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="122">
         <v>1</v>
       </c>
@@ -6171,7 +6265,7 @@
       <c r="R2" s="122">
         <v>14</v>
       </c>
-      <c r="S2" s="162"/>
+      <c r="S2" s="145"/>
       <c r="T2" s="30">
         <v>1</v>
       </c>
@@ -6214,7 +6308,7 @@
       <c r="AG2" s="32">
         <v>14</v>
       </c>
-      <c r="AH2" s="148"/>
+      <c r="AH2" s="163"/>
       <c r="AI2" s="74">
         <v>1</v>
       </c>
@@ -6299,10 +6393,10 @@
       <c r="BJ2" s="77">
         <v>14</v>
       </c>
-      <c r="BK2" s="160"/>
-      <c r="BL2" s="153"/>
-      <c r="BM2" s="153"/>
-      <c r="BN2" s="139"/>
+      <c r="BK2" s="143"/>
+      <c r="BL2" s="168"/>
+      <c r="BM2" s="168"/>
+      <c r="BN2" s="154"/>
     </row>
     <row r="3" spans="1:66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="50">
@@ -33167,10 +33261,10 @@
       <c r="AE125" s="10"/>
       <c r="AF125" s="10"/>
       <c r="AG125" s="10"/>
-      <c r="BL125" s="140" t="s">
+      <c r="BL125" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="BM125" s="141"/>
+      <c r="BM125" s="156"/>
       <c r="BN125" s="91">
         <f>SUM(BN3:BN124)</f>
         <v>0</v>
@@ -33192,10 +33286,10 @@
       <c r="AE126" s="10"/>
       <c r="AF126" s="10"/>
       <c r="AG126" s="10"/>
-      <c r="BL126" s="142" t="s">
+      <c r="BL126" s="157" t="s">
         <v>108</v>
       </c>
-      <c r="BM126" s="143"/>
+      <c r="BM126" s="158"/>
       <c r="BN126" s="123">
         <f>BN125/D125</f>
         <v>0</v>
@@ -33217,10 +33311,10 @@
       <c r="AE127" s="10"/>
       <c r="AF127" s="10"/>
       <c r="AG127" s="10"/>
-      <c r="BL127" s="154" t="s">
+      <c r="BL127" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="BM127" s="156"/>
+      <c r="BM127" s="139"/>
       <c r="BN127" s="124" t="e">
         <f>BN125/SUMIF(BM3:BM124,"&lt;&gt;0",D3:D124)</f>
         <v>#DIV/0!</v>
@@ -33242,7 +33336,7 @@
       <c r="AE128" s="10"/>
       <c r="AF128" s="10"/>
       <c r="AG128" s="10"/>
-      <c r="BL128" s="154" t="s">
+      <c r="BL128" s="137" t="s">
         <v>168</v>
       </c>
       <c r="BM128" s="125" t="s">
@@ -33269,7 +33363,7 @@
       <c r="AE129" s="10"/>
       <c r="AF129" s="10"/>
       <c r="AG129" s="10"/>
-      <c r="BL129" s="154"/>
+      <c r="BL129" s="137"/>
       <c r="BM129" s="125" t="s">
         <v>171</v>
       </c>
@@ -33294,7 +33388,7 @@
       <c r="AE130" s="10"/>
       <c r="AF130" s="10"/>
       <c r="AG130" s="10"/>
-      <c r="BL130" s="154" t="s">
+      <c r="BL130" s="137" t="s">
         <v>170</v>
       </c>
       <c r="BM130" s="125" t="s">
@@ -33321,7 +33415,7 @@
       <c r="AE131" s="10"/>
       <c r="AF131" s="10"/>
       <c r="AG131" s="10"/>
-      <c r="BL131" s="155"/>
+      <c r="BL131" s="138"/>
       <c r="BM131" s="126" t="s">
         <v>171</v>
       </c>
@@ -48108,6 +48202,15 @@
     <sortCondition ref="A1:A2"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="BN1:BN2"/>
+    <mergeCell ref="BL125:BM125"/>
+    <mergeCell ref="BL126:BM126"/>
+    <mergeCell ref="T1:AG1"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AV1"/>
+    <mergeCell ref="AW1:BJ1"/>
+    <mergeCell ref="BL1:BL2"/>
+    <mergeCell ref="BM1:BM2"/>
     <mergeCell ref="BL130:BL131"/>
     <mergeCell ref="BL127:BM127"/>
     <mergeCell ref="BL128:BL129"/>
@@ -48118,21 +48221,9 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="E1:R1"/>
-    <mergeCell ref="BN1:BN2"/>
-    <mergeCell ref="BL125:BM125"/>
-    <mergeCell ref="BL126:BM126"/>
-    <mergeCell ref="T1:AG1"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AV1"/>
-    <mergeCell ref="AW1:BJ1"/>
-    <mergeCell ref="BL1:BL2"/>
-    <mergeCell ref="BM1:BM2"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:R124">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49792,8 +49883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876F9E75-9F2A-41AA-A722-D6E5D6F583B6}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -49805,6 +49896,7 @@
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -49821,8 +49913,8 @@
         <v>150</v>
       </c>
       <c r="B2" s="94">
-        <f>AVERAGE(аенрпвне!I2:I93)</f>
-        <v>3.4386446886446884</v>
+        <f>AVERAGE(аенрпвне!S2:S93)</f>
+        <v>60.545185641366658</v>
       </c>
       <c r="C2" s="105">
         <f>AVERAGE(аенрпвне!I19:I93)</f>
@@ -49834,8 +49926,8 @@
         <v>151</v>
       </c>
       <c r="B3" s="95">
-        <f>_xlfn.STDEV.S(аенрпвне!I2:I93)</f>
-        <v>4.7836500599236871</v>
+        <f>_xlfn.STDEV.S(аенрпвне!S2:S93)</f>
+        <v>38.048700492118101</v>
       </c>
       <c r="C3" s="84">
         <f>_xlfn.STDEV.S(аенрпвне!I19:I93)</f>
@@ -49847,7 +49939,7 @@
         <v>152</v>
       </c>
       <c r="B4" s="104">
-        <f>MIN(аенрпвне!I2:I93)</f>
+        <f>MIN(аенрпвне!S2:S93)</f>
         <v>0</v>
       </c>
       <c r="C4" s="103">
@@ -49860,8 +49952,8 @@
         <v>153</v>
       </c>
       <c r="B5" s="95">
-        <f>MAX(аенрпвне!I2:I93)</f>
-        <v>24</v>
+        <f>MAX(аенрпвне!S2:S93)</f>
+        <v>100</v>
       </c>
       <c r="C5" s="84"/>
     </row>
@@ -49871,11 +49963,11 @@
       </c>
       <c r="B6" s="95">
         <f>B5-B4</f>
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C6" s="84">
         <f>B5-C4</f>
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -49883,19 +49975,17 @@
         <v>155</v>
       </c>
       <c r="B7" s="95">
-        <v>1.8571428571428601</v>
+        <f>B6/10</f>
+        <v>10</v>
       </c>
       <c r="C7" s="84"/>
-      <c r="D7">
-        <f>13/E9</f>
-        <v>1.8571428571428572</v>
-      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="95">
+      <c r="B8">
+        <f>_xlfn.FLOOR.MATH(1+LOG(B9,2))</f>
         <v>7</v>
       </c>
       <c r="C8" s="84"/>
@@ -49905,15 +49995,13 @@
         <v>157</v>
       </c>
       <c r="B9" s="96">
-        <v>88</v>
+        <f>COUNT(аенрпвне!S2:S93)</f>
+        <v>90</v>
       </c>
       <c r="C9" s="85">
         <f>COUNT(аенрпвне!I19:I93)</f>
         <v>75</v>
       </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="83"/>
@@ -49923,18 +50011,18 @@
       <c r="F12" s="93"/>
     </row>
     <row r="13" spans="1:16" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="173" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="175"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="117" t="s">
         <v>158</v>
       </c>
       <c r="D13" s="117" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="118" t="s">
         <v>197</v>
-      </c>
-      <c r="E13" s="118" t="s">
-        <v>198</v>
       </c>
       <c r="F13" s="118" t="s">
         <v>166</v>
@@ -49945,7 +50033,7 @@
       <c r="H13" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="I13" s="170" t="s">
+      <c r="I13" s="169" t="s">
         <v>160</v>
       </c>
       <c r="J13" s="106"/>
@@ -49959,22 +50047,22 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="132">
         <f>B14-D7</f>
-        <v>-3.7142857142857144</v>
+        <v>-10</v>
       </c>
       <c r="B14" s="133">
         <f>A15</f>
-        <v>-1.8571428571428572</v>
+        <v>-10</v>
       </c>
       <c r="C14" s="134"/>
       <c r="D14" s="134"/>
       <c r="E14" s="108">
         <f>_xlfn.NORM.DIST(B14,B$2,B$3,1)*B$9-_xlfn.NORM.DIST(A14,B$2,B$3,1)*B$9</f>
-        <v>5.8708529249432981</v>
+        <v>0</v>
       </c>
       <c r="F14" s="108"/>
       <c r="G14" s="135"/>
       <c r="H14" s="136"/>
-      <c r="I14" s="171"/>
+      <c r="I14" s="170"/>
       <c r="J14" s="106"/>
       <c r="K14" s="106"/>
       <c r="L14" s="106"/>
@@ -49985,15 +50073,15 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="104">
-        <f>-D7</f>
-        <v>-1.8571428571428572</v>
+        <f>-B7</f>
+        <v>-10</v>
       </c>
       <c r="B15" s="114">
         <v>0</v>
       </c>
       <c r="C15" s="108">
-        <f>COUNTIFS(аенрпвне!I$2:I$93,"&gt;"&amp;статистика_по_Pi!A15,аенрпвне!I$2:I$93,"&lt;="&amp;B15,аенрпвне!I$2:I$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!I$2:I$93,"&lt;="&amp;(B$2+3*B$3))</f>
-        <v>16</v>
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A15,аенрпвне!S$2:S$93,"&lt;="&amp;B15,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>13</v>
       </c>
       <c r="D15" s="115">
         <f>FREQUENCY(аенрпвне!I2:I93,статистика_по_Pi!B15:B24)</f>
@@ -50001,22 +50089,22 @@
       </c>
       <c r="E15" s="108">
         <f>_xlfn.NORM.DIST(B15,B$2,B$3,1)*B$9-_xlfn.NORM.DIST(A15,B$2,B$3,1)*B$9</f>
-        <v>8.9749410763833648</v>
+        <v>2.1520763832016536</v>
       </c>
       <c r="F15" s="108"/>
       <c r="G15" s="115">
         <f>((C15-E15)^2)/E15</f>
-        <v>5.4988052244876569</v>
+        <v>54.680887590440484</v>
       </c>
       <c r="H15" s="116" t="e">
         <f>((0-F15)^2)/F15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="172"/>
+      <c r="I15" s="171"/>
       <c r="J15" s="106"/>
       <c r="K15" s="106">
         <f>C15</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -50040,11 +50128,11 @@
       </c>
       <c r="B16" s="109">
         <f t="shared" ref="B16:B29" si="0">A16+B$7</f>
-        <v>1.8571428571428601</v>
+        <v>10</v>
       </c>
       <c r="C16" s="108">
-        <f>COUNTIFS(аенрпвне!I$2:I$93,"&gt;"&amp;статистика_по_Pi!A16,аенрпвне!I$2:I$93,"&lt;="&amp;B16,аенрпвне!I$2:I$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!I$2:I$93,"&lt;="&amp;(B$2+3*B$3))</f>
-        <v>30</v>
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A16,аенрпвне!S$2:S$93,"&lt;="&amp;B16,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>5</v>
       </c>
       <c r="D16" s="115">
         <f>FREQUENCY(аенрпвне!I3:I94,статистика_по_Pi!B15:B24)</f>
@@ -50052,25 +50140,26 @@
       </c>
       <c r="E16" s="108">
         <f>_xlfn.NORM.DIST(B16,B$2,B$3,1)*B$9-_xlfn.NORM.DIST(A16,B$2,B$3,1)*B$9</f>
-        <v>11.822731066280557</v>
+        <v>3.2617167076980706</v>
       </c>
       <c r="F16" s="108"/>
       <c r="G16" s="115">
         <f t="shared" ref="G16:G22" si="1">((C16-E16)^2)/E16</f>
-        <v>27.947274114280454</v>
+        <v>0.92639216556257098</v>
       </c>
       <c r="H16" s="112" t="e">
         <f>((C16-F16)^2)/F16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="172"/>
+      <c r="I16" s="171"/>
       <c r="J16" s="106"/>
       <c r="K16" s="106">
-        <f t="shared" ref="K16:K22" si="2">C16</f>
-        <v>30</v>
-      </c>
-      <c r="L16" s="107" t="s">
-        <v>199</v>
+        <f>C16</f>
+        <v>5</v>
+      </c>
+      <c r="L16" s="107" t="str">
+        <f>"от "&amp;ROUND(A16,2)&amp;" до "&amp;ROUND(B16,2)</f>
+        <v>от 0 до 10</v>
       </c>
       <c r="M16" s="106">
         <f>дома!BN$126*1000</f>
@@ -50087,38 +50176,39 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="131">
         <f>B16</f>
-        <v>1.8571428571428601</v>
+        <v>10</v>
       </c>
       <c r="B17" s="109">
         <f t="shared" si="0"/>
-        <v>3.7142857142857202</v>
+        <v>20</v>
       </c>
       <c r="C17" s="108">
-        <f>COUNTIFS(аенрпвне!I$2:I$93,"&gt;"&amp;статистика_по_Pi!A17,аенрпвне!I$2:I$93,"&lt;="&amp;B17,аенрпвне!I$2:I$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!I$2:I$93,"&lt;="&amp;(B$2+3*B$3))</f>
-        <v>17</v>
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A17,аенрпвне!S$2:S$93,"&lt;="&amp;B17,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>5</v>
       </c>
       <c r="D17" s="108"/>
       <c r="E17" s="108">
         <f>_xlfn.NORM.DIST(B17,B$2,B$3,1)*B$9-_xlfn.NORM.DIST(A17,B$2,B$3,1)*B$9</f>
-        <v>13.420330101229219</v>
+        <v>4.6153746787058569</v>
       </c>
       <c r="F17" s="108"/>
       <c r="G17" s="115">
         <f t="shared" si="1"/>
-        <v>0.95482275678091777</v>
+        <v>3.2053007194229342E-2</v>
       </c>
       <c r="H17" s="112" t="e">
-        <f t="shared" ref="H17:H22" si="3">((C17-F17)^2)/F17</f>
+        <f t="shared" ref="H17:H22" si="2">((C17-F17)^2)/F17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="172"/>
+      <c r="I17" s="171"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="L17" s="107" t="s">
-        <v>200</v>
+        <f t="shared" ref="K16:K22" si="3">C17</f>
+        <v>5</v>
+      </c>
+      <c r="L17" s="107" t="str">
+        <f t="shared" ref="L17:L35" si="4">"от "&amp;ROUND(A17,2)&amp;" до "&amp;ROUND(B17,2)</f>
+        <v>от 10 до 20</v>
       </c>
       <c r="M17" s="106">
         <f>дома!BN$126*1000</f>
@@ -50134,39 +50224,40 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="95">
-        <f t="shared" ref="A18:A30" si="4">B17</f>
-        <v>3.7142857142857202</v>
+        <f t="shared" ref="A18:A30" si="5">B17</f>
+        <v>20</v>
       </c>
       <c r="B18" s="109">
         <f t="shared" si="0"/>
-        <v>5.5714285714285801</v>
+        <v>30</v>
       </c>
       <c r="C18" s="108">
-        <f>COUNTIFS(аенрпвне!I$2:I$93,"&gt;"&amp;статистика_по_Pi!A18,аенрпвне!I$2:I$93,"&lt;="&amp;B18,аенрпвне!I$2:I$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!I$2:I$93,"&lt;="&amp;(B$2+3*B$3))</f>
-        <v>13</v>
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A18,аенрпвне!S$2:S$93,"&lt;="&amp;B18,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>4</v>
       </c>
       <c r="D18" s="108"/>
       <c r="E18" s="108">
-        <f t="shared" ref="E18:E30" si="5">_xlfn.NORM.DIST(B18,B$2,B$3,1)*B$9-_xlfn.NORM.DIST(A18,B$2,B$3,1)*B$9</f>
-        <v>13.127116286133898</v>
+        <f t="shared" ref="E18:E30" si="6">_xlfn.NORM.DIST(B18,B$2,B$3,1)*B$9-_xlfn.NORM.DIST(A18,B$2,B$3,1)*B$9</f>
+        <v>6.0973379342568741</v>
       </c>
       <c r="F18" s="108"/>
       <c r="G18" s="115">
         <f t="shared" si="1"/>
-        <v>1.2309291582602341E-3</v>
+        <v>0.7214339204915674</v>
       </c>
       <c r="H18" s="112" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="172"/>
+      <c r="I18" s="171"/>
       <c r="J18" s="106"/>
       <c r="K18" s="106">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="L18" s="107" t="s">
-        <v>201</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L18" s="107" t="str">
+        <f t="shared" si="4"/>
+        <v>от 20 до 30</v>
       </c>
       <c r="M18" s="106">
         <f>дома!BN$126*1000</f>
@@ -50182,39 +50273,40 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="95">
-        <f t="shared" si="4"/>
-        <v>5.5714285714285801</v>
+        <f t="shared" si="5"/>
+        <v>30</v>
       </c>
       <c r="B19" s="109">
         <f t="shared" si="0"/>
-        <v>7.4285714285714404</v>
+        <v>40</v>
       </c>
       <c r="C19" s="108">
-        <f>COUNTIFS(аенрпвне!I$2:I$93,"&gt;"&amp;статистика_по_Pi!A19,аенрпвне!I$2:I$93,"&lt;="&amp;B19,аенрпвне!I$2:I$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!I$2:I$93,"&lt;="&amp;(B$2+3*B$3))</f>
-        <v>4</v>
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A19,аенрпвне!S$2:S$93,"&lt;="&amp;B19,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>1</v>
       </c>
       <c r="D19" s="108"/>
       <c r="E19" s="108">
         <f>_xlfn.NORM.DIST(B19,B$2,B$3,1)*B$9-_xlfn.NORM.DIST(A19,B$2,B$3,1)*B$9</f>
-        <v>11.064605653857996</v>
+        <v>7.5204958488580829</v>
       </c>
       <c r="F19" s="108"/>
       <c r="G19" s="115">
         <f t="shared" si="1"/>
-        <v>4.510658093550787</v>
+        <v>5.6534658045760748</v>
       </c>
       <c r="H19" s="112" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="172"/>
+      <c r="I19" s="171"/>
       <c r="J19" s="106"/>
       <c r="K19" s="106">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L19" s="137" t="s">
-        <v>202</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="107" t="str">
+        <f t="shared" si="4"/>
+        <v>от 30 до 40</v>
       </c>
       <c r="M19" s="106">
         <f>дома!BN$126*1000</f>
@@ -50230,39 +50322,40 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="95">
-        <f t="shared" si="4"/>
-        <v>7.4285714285714404</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
       <c r="B20" s="109">
         <f t="shared" si="0"/>
-        <v>9.2857142857143007</v>
+        <v>50</v>
       </c>
       <c r="C20" s="108">
-        <f>COUNTIFS(аенрпвне!I$2:I$93,"&gt;"&amp;статистика_по_Pi!A20,аенрпвне!I$2:I$93,"&lt;="&amp;B20,аенрпвне!I$2:I$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!I$2:I$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A20,аенрпвне!S$2:S$93,"&lt;="&amp;B20,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
         <v>2</v>
       </c>
       <c r="D20" s="108"/>
       <c r="E20" s="108">
         <f>_xlfn.NORM.DIST(B20,B$2,B$3,1)*B$9-_xlfn.NORM.DIST(A20,B$2,B$3,1)*B$9</f>
-        <v>8.0363883430355969</v>
+        <v>8.6601585402839021</v>
       </c>
       <c r="F20" s="108"/>
       <c r="G20" s="115">
         <f t="shared" si="1"/>
-        <v>4.5341243693771363</v>
+        <v>5.1220438488949922</v>
       </c>
       <c r="H20" s="112" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="172"/>
+      <c r="I20" s="171"/>
       <c r="J20" s="106"/>
       <c r="K20" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L20" s="107" t="s">
-        <v>203</v>
+      <c r="L20" s="107" t="str">
+        <f t="shared" si="4"/>
+        <v>от 40 до 50</v>
       </c>
       <c r="M20" s="106">
         <f>дома!BN$126*1000</f>
@@ -50278,39 +50371,40 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="95">
-        <f t="shared" si="4"/>
-        <v>9.2857142857143007</v>
+        <f t="shared" si="5"/>
+        <v>50</v>
       </c>
       <c r="B21" s="109">
         <f t="shared" si="0"/>
-        <v>11.14285714285716</v>
+        <v>60</v>
       </c>
       <c r="C21" s="108">
-        <f>COUNTIFS(аенрпвне!I$2:I$93,"&gt;"&amp;статистика_по_Pi!A21,аенрпвне!I$2:I$93,"&lt;="&amp;B21,аенрпвне!I$2:I$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!I$2:I$93,"&lt;="&amp;(B$2+3*B$3))</f>
-        <v>4</v>
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A21,аенрпвне!S$2:S$93,"&lt;="&amp;B21,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>5</v>
       </c>
       <c r="D21" s="108"/>
       <c r="E21" s="108">
-        <f t="shared" si="5"/>
-        <v>5.0296798203411726</v>
+        <f t="shared" si="6"/>
+        <v>9.3106185424570285</v>
       </c>
       <c r="F21" s="108"/>
       <c r="G21" s="115">
         <f>((C21-E21)^2)/E21</f>
-        <v>0.21079682410995126</v>
+        <v>1.9957247881912261</v>
       </c>
       <c r="H21" s="112" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="172"/>
+      <c r="I21" s="171"/>
       <c r="J21" s="106"/>
       <c r="K21" s="106">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L21" s="107" t="s">
-        <v>204</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L21" s="107" t="str">
+        <f t="shared" si="4"/>
+        <v>от 50 до 60</v>
       </c>
       <c r="M21" s="106">
         <f>дома!BN$126*1000</f>
@@ -50326,39 +50420,40 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="95">
-        <f t="shared" si="4"/>
-        <v>11.14285714285716</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
       <c r="B22" s="109">
         <f t="shared" si="0"/>
-        <v>13.00000000000002</v>
+        <v>70</v>
       </c>
       <c r="C22" s="108">
-        <f>COUNTIFS(аенрпвне!I$2:I$93,"&gt;"&amp;статистика_по_Pi!A22)</f>
-        <v>5</v>
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A22,аенрпвне!S$2:S$93,"&lt;="&amp;B22,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>9</v>
       </c>
       <c r="D22" s="108"/>
       <c r="E22" s="108">
-        <f t="shared" si="5"/>
-        <v>2.712492379072259</v>
+        <f t="shared" si="6"/>
+        <v>9.3455450610592692</v>
       </c>
       <c r="F22" s="108"/>
       <c r="G22" s="115">
         <f t="shared" si="1"/>
-        <v>1.9291081354456032</v>
+        <v>1.2776289498615988E-2</v>
       </c>
       <c r="H22" s="112" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="172"/>
+      <c r="I22" s="171"/>
       <c r="J22" s="106"/>
       <c r="K22" s="106">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L22" s="107" t="s">
-        <v>196</v>
+        <f>C22</f>
+        <v>9</v>
+      </c>
+      <c r="L22" s="107" t="str">
+        <f t="shared" si="4"/>
+        <v>от 60 до 70</v>
       </c>
       <c r="M22" s="106">
         <f>дома!BN$126*1000</f>
@@ -50373,22 +50468,22 @@
       <c r="P22" s="106"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="95">
-        <f t="shared" si="4"/>
-        <v>13.00000000000002</v>
+      <c r="A23" s="131">
+        <f>B22</f>
+        <v>70</v>
       </c>
       <c r="B23" s="109">
         <f t="shared" si="0"/>
-        <v>14.857142857142879</v>
+        <v>80</v>
       </c>
       <c r="C23" s="108">
-        <f>COUNTIFS(аенрпвне!I$2:I$93,"&gt;"&amp;статистика_по_Pi!A23,аенрпвне!I$2:I$93,"&lt;="&amp;B23,аенрпвне!I$2:I$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!I$2:I$93,"&lt;="&amp;(B$2+3*B$3))</f>
-        <v>0</v>
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A23,аенрпвне!S$2:S$93,"&lt;="&amp;B23,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>6</v>
       </c>
       <c r="D23" s="108"/>
       <c r="E23" s="108">
-        <f t="shared" si="5"/>
-        <v>1.2604861527241127</v>
+        <f>_xlfn.NORM.DIST(B23,B$2,B$3,1)*B$9-_xlfn.NORM.DIST(A23,B$2,B$3,1)*B$9</f>
+        <v>8.7579841115288417</v>
       </c>
       <c r="F23" s="108"/>
       <c r="G23" s="115" t="e">
@@ -50399,181 +50494,357 @@
         <f>((#REF!-#REF!)^2)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I23" s="172"/>
+      <c r="I23" s="171"/>
       <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="107"/>
+      <c r="K23" s="106">
+        <f t="shared" ref="K23:K35" si="7">C23</f>
+        <v>6</v>
+      </c>
+      <c r="L23" s="107" t="str">
+        <f t="shared" si="4"/>
+        <v>от 70 до 80</v>
+      </c>
       <c r="M23" s="106"/>
       <c r="N23" s="106"/>
       <c r="O23" s="106"/>
       <c r="P23" s="106"/>
     </row>
     <row r="24" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="95">
-        <f t="shared" si="4"/>
-        <v>14.857142857142879</v>
+      <c r="A24" s="131">
+        <f t="shared" ref="A24:A35" si="8">B23</f>
+        <v>80</v>
       </c>
       <c r="B24" s="109">
-        <f t="shared" si="0"/>
-        <v>16.71428571428574</v>
+        <f t="shared" ref="B24:B29" si="9">A24+B$7</f>
+        <v>90</v>
       </c>
       <c r="C24" s="108">
-        <f>COUNTIFS(аенрпвне!I$2:I$93,"&gt;"&amp;статистика_по_Pi!A24,аенрпвне!I$2:I$93,"&lt;="&amp;B24,аенрпвне!I$2:I$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!I$2:I$93,"&lt;="&amp;(B$2+3*B$3))</f>
-        <v>0</v>
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A24,аенрпвне!S$2:S$93,"&lt;="&amp;B24,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>9</v>
       </c>
       <c r="D24" s="108"/>
       <c r="E24" s="108">
-        <f t="shared" si="5"/>
-        <v>0.5047077405795477</v>
+        <f t="shared" si="6"/>
+        <v>7.6626150439365617</v>
       </c>
       <c r="F24" s="108"/>
       <c r="G24" s="115">
         <f>((C23-E23)^2)/E23</f>
-        <v>1.2604861527241127</v>
+        <v>0.86851908642224129</v>
       </c>
       <c r="H24" s="112" t="e">
         <f>((C23-F23)^2)/F23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="173"/>
+      <c r="I24" s="172"/>
       <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="107"/>
+      <c r="K24" s="106">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="L24" s="107" t="str">
+        <f t="shared" si="4"/>
+        <v>от 80 до 90</v>
+      </c>
       <c r="M24" s="106"/>
       <c r="N24" s="106"/>
       <c r="O24" s="106"/>
       <c r="P24" s="106"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="95">
+      <c r="A25" s="131">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="B25" s="109">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="C25" s="108">
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A25,аенрпвне!S$2:S$93,"&lt;="&amp;B25,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>31</v>
+      </c>
+      <c r="E25" s="108">
+        <f t="shared" si="6"/>
+        <v>6.2592607191014622</v>
+      </c>
+      <c r="F25" s="108"/>
+      <c r="K25" s="106">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="L25" s="107" t="str">
         <f t="shared" si="4"/>
-        <v>16.71428571428574</v>
-      </c>
-      <c r="B25" s="109">
-        <f t="shared" si="0"/>
-        <v>18.571428571428601</v>
-      </c>
-      <c r="C25" s="108">
-        <f>COUNTIFS(аенрпвне!I$2:I$93,"&gt;"&amp;статистика_по_Pi!A25,аенрпвне!I$2:I$93,"&lt;="&amp;B25,аенрпвне!I$2:I$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!I$2:I$93,"&lt;="&amp;(B$2+3*B$3))</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="108">
-        <f t="shared" si="5"/>
-        <v>0.17412599538258178</v>
-      </c>
-      <c r="F25" s="108"/>
+        <v>от 90 до 100</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="95">
+      <c r="A26" s="131">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="B26" s="109">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="C26" s="108">
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A26,аенрпвне!S$2:S$93,"&lt;="&amp;B26,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="108">
+        <f t="shared" si="6"/>
+        <v>4.7735559166944626</v>
+      </c>
+      <c r="F26" s="108"/>
+      <c r="K26" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="107" t="str">
         <f t="shared" si="4"/>
-        <v>18.571428571428601</v>
-      </c>
-      <c r="B26" s="109">
-        <f t="shared" si="0"/>
-        <v>20.428571428571463</v>
-      </c>
-      <c r="C26" s="108">
-        <f>COUNTIFS(аенрпвне!I$2:I$93,"&gt;"&amp;статистика_по_Pi!A26,аенрпвне!I$2:I$93,"&lt;="&amp;B26,аенрпвне!I$2:I$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!I$2:I$93,"&lt;="&amp;(B$2+3*B$3))</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="108">
-        <f t="shared" si="5"/>
-        <v>5.1760326412136237E-2</v>
-      </c>
-      <c r="F26" s="108"/>
+        <v>от 100 до 110</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="95">
+      <c r="A27" s="131">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+      <c r="B27" s="109">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+      <c r="C27" s="108">
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A27,аенрпвне!S$2:S$93,"&lt;="&amp;B27,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="108">
+        <f t="shared" si="6"/>
+        <v>3.39886256742858</v>
+      </c>
+      <c r="F27" s="108"/>
+      <c r="K27" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="107" t="str">
         <f t="shared" si="4"/>
-        <v>20.428571428571463</v>
-      </c>
-      <c r="B27" s="109">
-        <f t="shared" si="0"/>
-        <v>22.285714285714324</v>
-      </c>
-      <c r="C27" s="108">
-        <f>COUNTIFS(аенрпвне!I$2:I$93,"&gt;"&amp;статистика_по_Pi!A27,аенрпвне!I$2:I$93,"&lt;="&amp;B27,аенрпвне!I$2:I$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!I$2:I$93,"&lt;="&amp;(B$2+3*B$3))</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="108">
-        <f t="shared" si="5"/>
-        <v>1.3256437011946787E-2</v>
-      </c>
-      <c r="F27" s="108"/>
+        <v>от 110 до 120</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="95">
+      <c r="A28" s="131">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="B28" s="109">
+        <f t="shared" si="9"/>
+        <v>130</v>
+      </c>
+      <c r="C28" s="108">
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A28,аенрпвне!S$2:S$93,"&lt;="&amp;B28,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="108">
+        <f>_xlfn.NORM.DIST(B28,B$2,B$3,1)*B$9-_xlfn.NORM.DIST(A28,B$2,B$3,1)*B$9</f>
+        <v>2.2594223013855981</v>
+      </c>
+      <c r="F28" s="108"/>
+      <c r="K28" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="107" t="str">
         <f t="shared" si="4"/>
-        <v>22.285714285714324</v>
-      </c>
-      <c r="B28" s="109">
-        <f t="shared" si="0"/>
-        <v>24.142857142857185</v>
-      </c>
-      <c r="C28" s="108">
-        <f>COUNTIFS(аенрпвне!I$2:I$93,"&gt;"&amp;статистика_по_Pi!A28,аенрпвне!I$2:I$93,"&lt;="&amp;B28,аенрпвне!I$2:I$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!I$2:I$93,"&lt;="&amp;(B$2+3*B$3))</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="108">
-        <f t="shared" si="5"/>
-        <v>2.9250850261632877E-3</v>
-      </c>
-      <c r="F28" s="108"/>
+        <v>от 120 до 130</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="95">
+      <c r="A29" s="131">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+      <c r="B29" s="109">
+        <f t="shared" si="9"/>
+        <v>140</v>
+      </c>
+      <c r="C29" s="108">
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A29,аенрпвне!S$2:S$93,"&lt;="&amp;B29,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="108">
+        <f t="shared" si="6"/>
+        <v>1.4022742350407782</v>
+      </c>
+      <c r="F29" s="108"/>
+      <c r="K29" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="107" t="str">
         <f t="shared" si="4"/>
-        <v>24.142857142857185</v>
-      </c>
-      <c r="B29" s="109">
-        <f t="shared" si="0"/>
-        <v>26.000000000000046</v>
-      </c>
-      <c r="C29" s="108">
-        <f>COUNTIFS(аенрпвне!I$2:I$93,"&gt;"&amp;статистика_по_Pi!A29,аенрпвне!I$2:I$93,"&lt;="&amp;B29,аенрпвне!I$2:I$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!I$2:I$93,"&lt;="&amp;(B$2+3*B$3))</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="108">
-        <f t="shared" si="5"/>
-        <v>5.5605333032815452E-4</v>
-      </c>
-      <c r="F29" s="108"/>
+        <v>от 130 до 140</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="95">
+      <c r="A30" s="131">
+        <f t="shared" si="8"/>
+        <v>140</v>
+      </c>
+      <c r="B30" s="109">
+        <f t="shared" ref="B30:B35" si="10">A30+B$7</f>
+        <v>150</v>
+      </c>
+      <c r="C30" s="108">
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A30,аенрпвне!S$2:S$93,"&lt;="&amp;B30,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="108">
+        <f>_xlfn.NORM.DIST(B30,B$2,B$3,1)*B$9-_xlfn.NORM.DIST(A30,B$2,B$3,1)*B$9</f>
+        <v>0.81253050810833827</v>
+      </c>
+      <c r="F30" s="108"/>
+      <c r="K30" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="107" t="str">
         <f t="shared" si="4"/>
-        <v>26.000000000000046</v>
-      </c>
-      <c r="B30" s="109">
-        <v>15</v>
-      </c>
-      <c r="C30" s="108">
-        <f>COUNTIFS(аенрпвне!I$2:I$93,"&gt;"&amp;статистика_по_Pi!A30,аенрпвне!I$2:I$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!I$2:I$93,"&lt;="&amp;(B$2+3*B$3))</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="108">
-        <f t="shared" si="5"/>
-        <v>-0.68873859565574946</v>
-      </c>
-      <c r="F30" s="108"/>
+        <v>от 140 до 150</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="95"/>
+      <c r="A31" s="131">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="B31" s="109">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="C31" s="108">
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A31,аенрпвне!S$2:S$93,"&lt;="&amp;B31,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="108">
+        <f t="shared" ref="E31:E35" si="11">_xlfn.NORM.DIST(B31,B$2,B$3,1)*B$9-_xlfn.NORM.DIST(A31,B$2,B$3,1)*B$9</f>
+        <v>0.43955876237070868</v>
+      </c>
+      <c r="K31" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="107" t="str">
+        <f t="shared" si="4"/>
+        <v>от 150 до 160</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="95"/>
+      <c r="A32" s="131">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="B32" s="109">
+        <f t="shared" si="10"/>
+        <v>170</v>
+      </c>
+      <c r="C32" s="108">
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A32,аенрпвне!S$2:S$93,"&lt;="&amp;B32,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="108">
+        <f t="shared" si="11"/>
+        <v>0.22200565680991247</v>
+      </c>
+      <c r="K32" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="107" t="str">
+        <f t="shared" si="4"/>
+        <v>от 160 до 170</v>
+      </c>
       <c r="M32" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="95"/>
+      <c r="A33" s="131">
+        <f t="shared" si="8"/>
+        <v>170</v>
+      </c>
+      <c r="B33" s="109">
+        <f t="shared" si="10"/>
+        <v>180</v>
+      </c>
+      <c r="C33" s="108">
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A33,аенрпвне!S$2:S$93,"&lt;="&amp;B33,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="108">
+        <f t="shared" si="11"/>
+        <v>0.10468397097724846</v>
+      </c>
+      <c r="K33" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="107" t="str">
+        <f t="shared" si="4"/>
+        <v>от 170 до 180</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="95"/>
+      <c r="A34" s="131">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="B34" s="109">
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="C34" s="108">
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A34,аенрпвне!S$2:S$93,"&lt;="&amp;B34,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="108">
+        <f t="shared" si="11"/>
+        <v>4.6085523888066859E-2</v>
+      </c>
+      <c r="K34" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="107" t="str">
+        <f t="shared" si="4"/>
+        <v>от 180 до 190</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="95"/>
+      <c r="A35" s="131">
+        <f t="shared" si="8"/>
+        <v>190</v>
+      </c>
+      <c r="B35" s="109">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="C35" s="108">
+        <f>COUNTIFS(аенрпвне!S$2:S$93,"&gt;"&amp;A35,аенрпвне!S$2:S$93,"&lt;="&amp;B35,аенрпвне!S$2:S$93,"&gt;="&amp;(B$2-3*B$3),аенрпвне!S$2:S$93,"&lt;="&amp;(B$2+3*B$3))</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="108">
+        <f t="shared" si="11"/>
+        <v>1.8941577061426074E-2</v>
+      </c>
+      <c r="K35" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="107" t="str">
+        <f t="shared" si="4"/>
+        <v>от 190 до 200</v>
+      </c>
     </row>
     <row r="44" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="96"/>
@@ -50634,10 +50905,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85052D22-DDAE-48DD-9DC5-53682B811C22}">
-  <dimension ref="A1:R93"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="S63" sqref="S63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -50645,7 +50916,7 @@
     <col min="1" max="16384" width="9.140625" style="130"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="130" t="s">
         <v>194</v>
       </c>
@@ -50686,22 +50957,22 @@
         <v>182</v>
       </c>
       <c r="N1" s="130" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O1" s="130" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="P1" s="130" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="Q1" s="130" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="R1" s="130" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="130">
         <v>2</v>
       </c>
@@ -50742,22 +51013,25 @@
         <v>174</v>
       </c>
       <c r="N2" s="130" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O2" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P2" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q2" s="130" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R2" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S2" s="130">
+        <v>98.820632450000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="130">
         <v>6</v>
       </c>
@@ -50798,22 +51072,25 @@
         <v>178</v>
       </c>
       <c r="N3" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O3" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P3" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q3" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R3" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P3" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q3" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R3" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="130">
+        <v>94.458872130000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="130">
         <v>10</v>
       </c>
@@ -50854,22 +51131,25 @@
         <v>179</v>
       </c>
       <c r="N4" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O4" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q4" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R4" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P4" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q4" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R4" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="130">
+        <v>81.3364981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="130">
         <v>12</v>
       </c>
@@ -50910,22 +51190,25 @@
         <v>177</v>
       </c>
       <c r="N5" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O5" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P5" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R5" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S5" s="130">
+        <v>91.578124790000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="130">
         <v>15</v>
       </c>
@@ -50966,22 +51249,25 @@
         <v>177</v>
       </c>
       <c r="N6" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O6" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P6" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R6" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S6" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="130">
         <v>17</v>
       </c>
@@ -51022,22 +51308,25 @@
         <v>173</v>
       </c>
       <c r="N7" s="130" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O7" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P7" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R7" s="130" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="S7" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="130">
         <v>19</v>
       </c>
@@ -51078,22 +51367,25 @@
         <v>180</v>
       </c>
       <c r="N8" s="130" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O8" s="130" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P8" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q8" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R8" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S8" s="130">
+        <v>97.283222199999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="130">
         <v>21</v>
       </c>
@@ -51134,42 +51426,45 @@
         <v>177</v>
       </c>
       <c r="N9" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O9" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P9" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R9" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S9" s="130">
+        <v>36.80604958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B10" s="130">
         <v>9</v>
       </c>
       <c r="N10" s="130" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="O10" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P10" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="130" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R10" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="130">
         <v>26</v>
       </c>
@@ -51210,22 +51505,25 @@
         <v>178</v>
       </c>
       <c r="N11" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O11" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P11" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q11" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R11" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P11" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q11" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R11" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="130">
+        <v>27.771222219999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="130">
         <v>28</v>
       </c>
@@ -51266,22 +51564,25 @@
         <v>175</v>
       </c>
       <c r="N12" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O12" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P12" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q12" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R12" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S12" s="130">
+        <v>9.379136291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="130">
         <v>37</v>
       </c>
@@ -51322,22 +51623,25 @@
         <v>175</v>
       </c>
       <c r="N13" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O13" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P13" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R13" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S13" s="130">
+        <v>63.354882609999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="130">
         <v>55</v>
       </c>
@@ -51378,22 +51682,25 @@
         <v>179</v>
       </c>
       <c r="N14" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O14" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P14" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q14" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R14" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P14" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q14" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R14" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="130">
+        <v>8.7920103239999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="130">
         <v>57</v>
       </c>
@@ -51434,22 +51741,25 @@
         <v>177</v>
       </c>
       <c r="N15" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O15" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P15" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R15" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S15" s="130">
+        <v>44.391901879999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="130">
         <v>58</v>
       </c>
@@ -51490,22 +51800,25 @@
         <v>175</v>
       </c>
       <c r="N16" s="130" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O16" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="P16" s="130" t="s">
         <v>209</v>
       </c>
-      <c r="P16" s="130" t="s">
-        <v>216</v>
-      </c>
       <c r="Q16" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R16" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S16" s="130">
+        <v>64.907825220000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="130">
         <v>61</v>
       </c>
@@ -51546,22 +51859,25 @@
         <v>180</v>
       </c>
       <c r="N17" s="130" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O17" s="130" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P17" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R17" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S17" s="130">
+        <v>19.7990675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="130">
         <v>64</v>
       </c>
@@ -51602,22 +51918,25 @@
         <v>172</v>
       </c>
       <c r="N18" s="130" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O18" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P18" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q18" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="R18" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P18" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q18" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="R18" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="130">
+        <v>61.536289179999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="130">
         <v>66</v>
       </c>
@@ -51658,22 +51977,25 @@
         <v>172</v>
       </c>
       <c r="N19" s="130" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O19" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P19" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q19" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="R19" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P19" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q19" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="R19" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="130">
+        <v>91.317217560000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="130">
         <v>68</v>
       </c>
@@ -51714,22 +52036,25 @@
         <v>177</v>
       </c>
       <c r="N20" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O20" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P20" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R20" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S20" s="130">
+        <v>60.787078729999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="130">
         <v>71</v>
       </c>
@@ -51770,22 +52095,25 @@
         <v>178</v>
       </c>
       <c r="N21" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O21" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P21" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q21" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R21" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P21" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q21" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R21" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="130">
+        <v>44.204673450000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="130">
         <v>72</v>
       </c>
@@ -51826,22 +52154,25 @@
         <v>179</v>
       </c>
       <c r="N22" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O22" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P22" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q22" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R22" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P22" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q22" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R22" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="130">
+        <v>13.80650526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="130">
         <v>74</v>
       </c>
@@ -51882,22 +52213,25 @@
         <v>179</v>
       </c>
       <c r="N23" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O23" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P23" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q23" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R23" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P23" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q23" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R23" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="130">
+        <v>79.053570989999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="130">
         <v>77</v>
       </c>
@@ -51938,22 +52272,25 @@
         <v>179</v>
       </c>
       <c r="N24" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O24" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P24" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q24" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R24" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P24" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q24" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R24" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="130">
+        <v>56.628812859999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="130">
         <v>81</v>
       </c>
@@ -51994,22 +52331,25 @@
         <v>175</v>
       </c>
       <c r="N25" s="130" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O25" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="P25" s="130" t="s">
         <v>209</v>
       </c>
-      <c r="P25" s="130" t="s">
-        <v>216</v>
-      </c>
       <c r="Q25" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R25" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S25" s="130">
+        <v>90.995370370000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="130">
         <v>87</v>
       </c>
@@ -52050,22 +52390,25 @@
         <v>172</v>
       </c>
       <c r="N26" s="130" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O26" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P26" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q26" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="R26" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P26" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q26" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="R26" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="130">
+        <v>99.060036389999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="130">
         <v>89</v>
       </c>
@@ -52106,22 +52449,25 @@
         <v>175</v>
       </c>
       <c r="N27" s="130" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O27" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="P27" s="130" t="s">
         <v>209</v>
       </c>
-      <c r="P27" s="130" t="s">
-        <v>216</v>
-      </c>
       <c r="Q27" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R27" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S27" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="130">
         <v>90</v>
       </c>
@@ -52162,22 +52508,25 @@
         <v>180</v>
       </c>
       <c r="N28" s="130" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O28" s="130" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P28" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q28" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R28" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S28" s="130">
+        <v>66.519483690000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="130">
         <v>23</v>
       </c>
@@ -52218,22 +52567,25 @@
         <v>178</v>
       </c>
       <c r="N29" s="130" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O29" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P29" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R29" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S29" s="130">
+        <v>75.432290309999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="130">
         <v>29</v>
       </c>
@@ -52274,22 +52626,25 @@
         <v>175</v>
       </c>
       <c r="N30" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O30" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P30" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R30" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S30" s="130">
+        <v>22.43967464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="130">
         <v>30</v>
       </c>
@@ -52330,22 +52685,25 @@
         <v>179</v>
       </c>
       <c r="N31" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O31" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P31" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q31" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R31" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P31" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q31" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R31" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="130">
+        <v>62.86071802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="130">
         <v>31</v>
       </c>
@@ -52386,22 +52744,25 @@
         <v>177</v>
       </c>
       <c r="N32" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O32" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P32" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R32" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S32" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="130">
         <v>33</v>
       </c>
@@ -52442,22 +52803,25 @@
         <v>181</v>
       </c>
       <c r="N33" s="130" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="O33" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P33" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q33" s="130" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R33" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S33" s="130">
+        <v>87.429630650000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="130">
         <v>36</v>
       </c>
@@ -52498,22 +52862,25 @@
         <v>179</v>
       </c>
       <c r="N34" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O34" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P34" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q34" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R34" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P34" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q34" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R34" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="130">
+        <v>83.663710539999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="130">
         <v>39</v>
       </c>
@@ -52554,22 +52921,25 @@
         <v>177</v>
       </c>
       <c r="N35" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O35" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P35" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R35" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S35" s="130">
+        <v>14.634391750000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="130">
         <v>42</v>
       </c>
@@ -52610,22 +52980,25 @@
         <v>177</v>
       </c>
       <c r="N36" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O36" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P36" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q36" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R36" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S36" s="130">
+        <v>93.434469039999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="130">
         <v>43</v>
       </c>
@@ -52666,22 +53039,25 @@
         <v>180</v>
       </c>
       <c r="N37" s="130" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O37" s="130" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P37" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q37" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R37" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S37" s="130">
+        <v>88.105057520000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="130">
         <v>51</v>
       </c>
@@ -52722,22 +53098,25 @@
         <v>180</v>
       </c>
       <c r="N38" s="130" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O38" s="130" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P38" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q38" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R38" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S38" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="130">
         <v>65</v>
       </c>
@@ -52778,22 +53157,25 @@
         <v>177</v>
       </c>
       <c r="N39" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O39" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P39" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q39" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R39" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S39" s="130">
+        <v>78.935724960000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="130">
         <v>67</v>
       </c>
@@ -52834,22 +53216,25 @@
         <v>180</v>
       </c>
       <c r="N40" s="130" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O40" s="130" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P40" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q40" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R40" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S40" s="130">
+        <v>99.956242270000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="130">
         <v>91</v>
       </c>
@@ -52890,22 +53275,25 @@
         <v>177</v>
       </c>
       <c r="N41" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O41" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P41" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R41" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S41" s="130">
+        <v>81.79378131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="130">
         <v>92</v>
       </c>
@@ -52946,22 +53334,25 @@
         <v>173</v>
       </c>
       <c r="N42" s="130" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O42" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P42" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q42" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R42" s="130" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="S42" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="130">
         <v>3</v>
       </c>
@@ -53002,22 +53393,25 @@
         <v>178</v>
       </c>
       <c r="N43" s="130" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O43" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P43" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R43" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S43" s="130">
+        <v>29.783658899999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="130">
         <v>5</v>
       </c>
@@ -53058,22 +53452,25 @@
         <v>174</v>
       </c>
       <c r="N44" s="130" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O44" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P44" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="130" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R44" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S44" s="130">
+        <v>93.206309540000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="130">
         <v>20</v>
       </c>
@@ -53114,22 +53511,25 @@
         <v>179</v>
       </c>
       <c r="N45" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O45" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P45" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q45" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R45" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P45" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q45" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R45" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="130">
+        <v>68.724118750000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="130">
         <v>41</v>
       </c>
@@ -53170,22 +53570,25 @@
         <v>172</v>
       </c>
       <c r="N46" s="130" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O46" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P46" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q46" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="R46" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P46" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q46" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="R46" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="130">
+        <v>51.402161990000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="130">
         <v>46</v>
       </c>
@@ -53226,22 +53629,25 @@
         <v>178</v>
       </c>
       <c r="N47" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O47" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P47" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q47" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R47" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P47" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q47" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R47" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="130">
+        <v>19.97435346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="130">
         <v>83</v>
       </c>
@@ -53282,22 +53688,25 @@
         <v>177</v>
       </c>
       <c r="N48" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O48" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P48" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R48" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S48" s="130">
+        <v>89.165120590000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="130">
         <v>9</v>
       </c>
@@ -53338,22 +53747,25 @@
         <v>178</v>
       </c>
       <c r="N49" s="130" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O49" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P49" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q49" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R49" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S49" s="130">
+        <v>55.992762509999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="130">
         <v>11</v>
       </c>
@@ -53394,22 +53806,25 @@
         <v>180</v>
       </c>
       <c r="N50" s="130" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O50" s="130" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P50" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q50" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R50" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S50" s="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="130">
         <v>13</v>
       </c>
@@ -53450,22 +53865,25 @@
         <v>178</v>
       </c>
       <c r="N51" s="130" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O51" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P51" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q51" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R51" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S51" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="130">
         <v>14</v>
       </c>
@@ -53506,22 +53924,25 @@
         <v>179</v>
       </c>
       <c r="N52" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O52" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P52" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q52" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R52" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P52" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q52" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R52" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="130">
         <v>25</v>
       </c>
@@ -53562,22 +53983,25 @@
         <v>179</v>
       </c>
       <c r="N53" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O53" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P53" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q53" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R53" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P53" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q53" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R53" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="130">
+        <v>14.68431262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="130">
         <v>27</v>
       </c>
@@ -53618,22 +54042,25 @@
         <v>179</v>
       </c>
       <c r="N54" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O54" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P54" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q54" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R54" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P54" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q54" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R54" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="130">
+        <v>54.533138030000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="130">
         <v>32</v>
       </c>
@@ -53674,22 +54101,25 @@
         <v>179</v>
       </c>
       <c r="N55" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O55" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P55" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q55" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R55" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P55" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q55" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R55" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="130">
+        <v>72.169924760000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="130">
         <v>34</v>
       </c>
@@ -53730,22 +54160,25 @@
         <v>175</v>
       </c>
       <c r="N56" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O56" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P56" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q56" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R56" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S56" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="130">
         <v>40</v>
       </c>
@@ -53786,22 +54219,25 @@
         <v>176</v>
       </c>
       <c r="N57" s="130" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="O57" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P57" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="130" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R57" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S57" s="130">
+        <v>3.3688150659999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="130">
         <v>47</v>
       </c>
@@ -53842,22 +54278,25 @@
         <v>178</v>
       </c>
       <c r="N58" s="130" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O58" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P58" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q58" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R58" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S58" s="130">
+        <v>75.272050609999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="130">
         <v>53</v>
       </c>
@@ -53898,22 +54337,25 @@
         <v>173</v>
       </c>
       <c r="N59" s="130" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O59" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P59" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q59" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R59" s="130" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="S59" s="130">
+        <v>60.656303010000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="130">
         <v>56</v>
       </c>
@@ -53954,22 +54396,25 @@
         <v>179</v>
       </c>
       <c r="N60" s="130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O60" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P60" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q60" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="R60" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P60" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q60" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="R60" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="130">
+        <v>92.861615529999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="130">
         <v>59</v>
       </c>
@@ -54010,22 +54455,25 @@
         <v>173</v>
       </c>
       <c r="N61" s="130" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O61" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P61" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q61" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R61" s="130" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="S61" s="130">
+        <v>64.502465810000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="130">
         <v>69</v>
       </c>
@@ -54066,22 +54514,25 @@
         <v>172</v>
       </c>
       <c r="N62" s="130" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O62" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P62" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q62" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="R62" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P62" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q62" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="R62" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="130">
         <v>73</v>
       </c>
@@ -54122,22 +54573,25 @@
         <v>178</v>
       </c>
       <c r="N63" s="130" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O63" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P63" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q63" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R63" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S63" s="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="130">
         <v>75</v>
       </c>
@@ -54178,22 +54632,25 @@
         <v>177</v>
       </c>
       <c r="N64" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O64" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P64" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q64" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R64" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S64" s="130">
+        <v>5.0600045949999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="130">
         <v>76</v>
       </c>
@@ -54234,22 +54691,25 @@
         <v>178</v>
       </c>
       <c r="N65" s="130" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O65" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P65" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q65" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R65" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S65" s="130">
+        <v>21.36495201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="130">
         <v>80</v>
       </c>
@@ -54290,22 +54750,25 @@
         <v>173</v>
       </c>
       <c r="N66" s="130" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O66" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P66" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q66" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R66" s="130" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="S66" s="130">
+        <v>79.570241499999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="130">
         <v>84</v>
       </c>
@@ -54346,22 +54809,25 @@
         <v>172</v>
       </c>
       <c r="N67" s="130" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O67" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P67" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q67" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="R67" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P67" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q67" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="R67" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="130">
+        <v>80.847182009999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="130">
         <v>4</v>
       </c>
@@ -54402,22 +54868,25 @@
         <v>174</v>
       </c>
       <c r="N68" s="130" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O68" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P68" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q68" s="130" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R68" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S68" s="130" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="130">
         <v>7</v>
       </c>
@@ -54458,22 +54927,25 @@
         <v>173</v>
       </c>
       <c r="N69" s="130" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O69" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P69" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q69" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R69" s="130" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="S69" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="130">
         <v>8</v>
       </c>
@@ -54514,22 +54986,25 @@
         <v>175</v>
       </c>
       <c r="N70" s="130" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O70" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="P70" s="130" t="s">
         <v>209</v>
       </c>
-      <c r="P70" s="130" t="s">
-        <v>216</v>
-      </c>
       <c r="Q70" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R70" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S70" s="130">
+        <v>8.8544727870000006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="130">
         <v>16</v>
       </c>
@@ -54570,22 +55045,25 @@
         <v>178</v>
       </c>
       <c r="N71" s="130" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O71" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P71" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q71" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R71" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S71" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="130">
         <v>18</v>
       </c>
@@ -54626,22 +55104,25 @@
         <v>173</v>
       </c>
       <c r="N72" s="130" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O72" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P72" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q72" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R72" s="130" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="S72" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="130">
         <v>45</v>
       </c>
@@ -54682,22 +55163,25 @@
         <v>175</v>
       </c>
       <c r="N73" s="130" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O73" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="P73" s="130" t="s">
         <v>209</v>
       </c>
-      <c r="P73" s="130" t="s">
-        <v>216</v>
-      </c>
       <c r="Q73" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R73" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S73" s="130">
+        <v>85.604006499999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="130">
         <v>49</v>
       </c>
@@ -54738,22 +55222,25 @@
         <v>172</v>
       </c>
       <c r="N74" s="130" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O74" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P74" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q74" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="R74" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P74" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q74" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="R74" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="130">
         <v>60</v>
       </c>
@@ -54794,22 +55281,25 @@
         <v>174</v>
       </c>
       <c r="N75" s="130" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O75" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P75" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q75" s="130" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R75" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S75" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="130">
         <v>62</v>
       </c>
@@ -54850,22 +55340,25 @@
         <v>172</v>
       </c>
       <c r="N76" s="130" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O76" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P76" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q76" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="R76" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P76" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q76" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="R76" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="130">
         <v>70</v>
       </c>
@@ -54906,22 +55399,25 @@
         <v>178</v>
       </c>
       <c r="N77" s="130" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O77" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P77" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q77" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R77" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S77" s="130">
+        <v>51.806961119999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="130">
         <v>82</v>
       </c>
@@ -54962,22 +55458,25 @@
         <v>177</v>
       </c>
       <c r="N78" s="130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O78" s="130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P78" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q78" s="130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R78" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="S78" s="130">
+        <v>94.880515709999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="130">
         <v>24</v>
       </c>
@@ -55018,22 +55517,25 @@
         <v>174</v>
       </c>
       <c r="N79" s="130" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O79" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P79" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q79" s="130" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R79" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S79" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="130">
         <v>35</v>
       </c>
@@ -55074,22 +55576,25 @@
         <v>173</v>
       </c>
       <c r="N80" s="130" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O80" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P80" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q80" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R80" s="130" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="S80" s="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="130">
         <v>38</v>
       </c>
@@ -55130,22 +55635,25 @@
         <v>172</v>
       </c>
       <c r="N81" s="130" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O81" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P81" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q81" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="R81" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P81" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q81" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="R81" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="130">
         <v>44</v>
       </c>
@@ -55186,22 +55694,25 @@
         <v>172</v>
       </c>
       <c r="N82" s="130" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O82" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P82" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q82" s="130" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R82" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S82" s="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="130">
         <v>50</v>
       </c>
@@ -55242,22 +55753,25 @@
         <v>172</v>
       </c>
       <c r="N83" s="130" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O83" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P83" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q83" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="R83" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P83" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q83" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="R83" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="130">
         <v>52</v>
       </c>
@@ -55298,22 +55812,25 @@
         <v>172</v>
       </c>
       <c r="N84" s="130" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O84" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P84" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q84" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="R84" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P84" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q84" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="R84" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="130">
         <v>54</v>
       </c>
@@ -55354,22 +55871,25 @@
         <v>173</v>
       </c>
       <c r="N85" s="130" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O85" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P85" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q85" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R85" s="130" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="S85" s="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="130">
         <v>63</v>
       </c>
@@ -55410,22 +55930,25 @@
         <v>172</v>
       </c>
       <c r="N86" s="130" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O86" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P86" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q86" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="R86" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P86" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q86" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="R86" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="130">
         <v>78</v>
       </c>
@@ -55466,22 +55989,25 @@
         <v>176</v>
       </c>
       <c r="N87" s="130" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O87" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P87" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q87" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="R87" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P87" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q87" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="R87" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="130">
         <v>79</v>
       </c>
@@ -55522,22 +56048,25 @@
         <v>175</v>
       </c>
       <c r="N88" s="130" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O88" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P88" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q88" s="130" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R88" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S88" s="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="130">
         <v>85</v>
       </c>
@@ -55578,22 +56107,25 @@
         <v>174</v>
       </c>
       <c r="N89" s="130" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O89" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P89" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q89" s="130" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R89" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S89" s="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="130">
         <v>86</v>
       </c>
@@ -55634,22 +56166,25 @@
         <v>172</v>
       </c>
       <c r="N90" s="130" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O90" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P90" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q90" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="R90" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P90" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q90" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="R90" s="130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="130">
         <v>88</v>
       </c>
@@ -55690,22 +56225,25 @@
         <v>174</v>
       </c>
       <c r="N91" s="130" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O91" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P91" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q91" s="130" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R91" s="130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S91" s="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="130">
         <v>1</v>
       </c>
@@ -55746,22 +56284,25 @@
         <v>173</v>
       </c>
       <c r="N92" s="130" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O92" s="130" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P92" s="130" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q92" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R92" s="130" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="S92" s="130">
+        <v>83.507085529999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="130">
         <v>48</v>
       </c>
@@ -55802,19 +56343,22 @@
         <v>172</v>
       </c>
       <c r="N93" s="130" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O93" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="P93" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q93" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="R93" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="P93" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q93" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="R93" s="130" t="s">
-        <v>213</v>
+      <c r="S93" s="130">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
